--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.10.xlsm 2018-08-14 17-33-15\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.05.xlsm 2018-09-19\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -330,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -365,7 +365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,9 +43,6 @@
     <t>per unit of annual capacity</t>
   </si>
   <si>
-    <t>Annual Capacity</t>
-  </si>
-  <si>
     <t>Year 1 selling price</t>
   </si>
   <si>
@@ -86,18 +83,22 @@
   </si>
   <si>
     <t>Reduction in demand for each $1 price increase</t>
+  </si>
+  <si>
+    <t>Annual capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -223,10 +224,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -240,8 +240,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -251,9 +249,28 @@
     <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -554,30 +571,30 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="13">
         <v>400000</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="14">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -585,115 +602,115 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11">
+        <v>300000</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14">
-        <v>300000</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="2">
+      <c r="B16" s="19">
         <v>40909</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="16">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17">
         <f>B1+B2*B3</f>
         <v>1300000</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Plant fixed cost</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Cost per unit of capacity</t>
   </si>
   <si>
-    <t>per unit of annual capacity</t>
-  </si>
-  <si>
     <t>Year 1 selling price</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
   </si>
   <si>
     <t>Total Cost of Construction</t>
-  </si>
-  <si>
-    <t>Demand if product is given away</t>
-  </si>
-  <si>
-    <t>Reduction in demand for each $1 price increase</t>
   </si>
   <si>
     <t>Annual capacity</t>
@@ -98,7 +89,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -224,10 +215,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -240,9 +230,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -270,7 +257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -568,149 +558,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="16" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="11">
         <v>400000</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11">
-        <v>300000</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="19">
-        <v>40909</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <f>B1+B2*B3</f>
         <v>1300000</v>
       </c>
-      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.05.xlsm 2018-09-19\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,9 +252,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -560,15 +557,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,19 +599,19 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -667,7 +661,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>40909</v>
       </c>
     </row>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.05.xlsm 2018-09-19/Final/6.05_Step1_Initial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.05.xlsm 2018-09-19\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -207,6 +207,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFDDD9C4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFDDD9C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDD9C4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDD9C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDD9C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDD9C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFDDD9C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDD9C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -215,7 +261,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -239,9 +285,6 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -258,6 +301,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -272,6 +321,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDD9C4"/>
       <color rgb="FFFFCD66"/>
       <color rgb="FF8BCDFF"/>
       <color rgb="FFFFFF99"/>
@@ -555,33 +605,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="20">
         <v>400000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -589,90 +639,93 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>40909</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <f>B1+B2*B3</f>
         <v>1300000</v>
       </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
